--- a/iteration-2/product-roadmap.xlsx
+++ b/iteration-2/product-roadmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Popets\Desktop\ \"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50449ADE-4041-45E2-9EE6-DEE2E9689827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2CBE86-6297-45F1-9D41-856638C15A21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1C420DF7-A0F3-4280-B81B-8B540428DC2A}"/>
   </bookViews>
@@ -1107,15 +1107,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
+      <xdr:colOff>1704975</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1130,8 +1130,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8572500" y="714375"/>
-          <a:ext cx="2505075" cy="247650"/>
+          <a:off x="9058275" y="981075"/>
+          <a:ext cx="2933700" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1324,15 +1324,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1704975</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
+      <xdr:colOff>1695450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1347,8 +1347,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12011025" y="676276"/>
-          <a:ext cx="3409950" cy="276224"/>
+          <a:off x="12611100" y="1000126"/>
+          <a:ext cx="2800350" cy="257174"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1396,16 +1396,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1276350</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1695450</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1333501</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1420,8 +1420,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9848850" y="1028700"/>
-          <a:ext cx="2133600" cy="495300"/>
+          <a:off x="12011025" y="695325"/>
+          <a:ext cx="3038476" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1451,7 +1451,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="bg-BG" sz="1100" baseline="0"/>
-            <a:t>показване на данните за </a:t>
+            <a:t>визуализация на данни за </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -1459,7 +1459,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="bg-BG" sz="1100" baseline="0"/>
-            <a:t>при цъкане на картата</a:t>
+            <a:t>на карта</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -1470,15 +1470,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1493,8 +1493,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5153025" y="695325"/>
-          <a:ext cx="2257425" cy="247650"/>
+          <a:off x="5638801" y="962025"/>
+          <a:ext cx="1733550" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1524,7 +1524,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="bg-BG" sz="1100" baseline="0"/>
-            <a:t>промяна на статуса на </a:t>
+            <a:t>поправка на </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -1538,16 +1538,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1562,7 +1562,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6896100" y="2438400"/>
+          <a:off x="5143500" y="2124075"/>
           <a:ext cx="1676400" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1602,15 +1602,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>1552575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
+      <xdr:colOff>1704975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1625,7 +1625,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5153025" y="2143125"/>
+          <a:off x="6696075" y="2409825"/>
           <a:ext cx="1866900" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1665,15 +1665,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>942976</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>904876</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1704976</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
+      <xdr:colOff>1666876</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1688,7 +1688,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6086476" y="971550"/>
+          <a:off x="6048376" y="1257300"/>
           <a:ext cx="2476500" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1741,16 +1741,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1714499</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1685925</xdr:colOff>
+      <xdr:colOff>1704975</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1765,8 +1765,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12001499" y="2162176"/>
-          <a:ext cx="3400426" cy="438150"/>
+          <a:off x="12020549" y="2162176"/>
+          <a:ext cx="3400426" cy="485774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1929,6 +1929,144 @@
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t>performance improvements</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>904876</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D97357C6-6D05-48B7-A88A-EB8C12268278}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8582025" y="704850"/>
+          <a:ext cx="2609851" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF9966"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="bg-BG" sz="1100" baseline="0"/>
+            <a:t>маркиране на </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>help request </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="bg-BG" sz="1100" baseline="0"/>
+            <a:t>за завършен</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4421037-B850-4770-B5CE-935A2445A932}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5153026" y="685800"/>
+          <a:ext cx="1095374" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF9966"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>edit profile</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2237,7 +2375,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:K10"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
